--- a/dati gruppo.xlsx
+++ b/dati gruppo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riccardodalcero/Desktop/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicattolicaicatt-my.sharepoint.com/personal/riccardo_dalcero01_icatt_it/Documents/Materials/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4150BF-D2EF-D64C-888D-AFDAAF404FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7A4150BF-D2EF-D64C-888D-AFDAAF404FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE29A42-4D3A-764C-A77E-B46F5C78923F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{0D610F3C-F858-1941-80A1-DD18062D320D}"/>
+    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{0D610F3C-F858-1941-80A1-DD18062D320D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ID.cane</t>
   </si>
@@ -310,6 +311,24 @@
   <si>
     <t>alog_MAC_11</t>
   </si>
+  <si>
+    <t>Maro</t>
+  </si>
+  <si>
+    <t>Trad</t>
+  </si>
+  <si>
+    <t>metad., thund</t>
+  </si>
+  <si>
+    <t>maro;thund</t>
+  </si>
+  <si>
+    <t>metad;trad</t>
+  </si>
+  <si>
+    <t>maro;trad</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -447,6 +466,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +787,7 @@
   <dimension ref="A1:CM81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D81"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23052,4 +23074,67 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE34894-8A9C-1847-A2DE-966248A542A4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="312" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>